--- a/Curso de Infraestructura Como Código en AWS/Fundamentos.xlsx
+++ b/Curso de Infraestructura Como Código en AWS/Fundamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jrperez\Cursos\CloudAws\Curso de Infraestructura Como Código en AWS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C59A71D-0DEE-4015-B716-DA06059BFBB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA959DC0-E7E1-4BAF-B586-069B8DB283AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Diferentes herramientas para desplegar infraestructura</t>
   </si>
@@ -242,27 +242,6 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF4A4A4A"/>
-        <rFont val="Lato"/>
-        <family val="2"/>
-      </rPr>
-      <t>Metadata</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4A4A4A"/>
-        <rFont val="Lato"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Opcional. Recuperan ajustes o información de configuración</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <i/>
         <sz val="11"/>
         <color rgb="FF4A4A4A"/>
@@ -357,6 +336,34 @@
       </rPr>
       <t>Arreglo de Llave valor . os cuales se pueden referenciar dentro del template . Similar a una tabla de busqueda</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>Metadata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Opcional. Recuperan ajustes o información de configuración.Puede utilizar la sección Metadata opcional para incluir objetos JSON o YAML arbitrarios que proporcionan detalles sobre la plantilla</t>
+    </r>
+  </si>
+  <si>
+    <t>Metadata:
+  Instances:
+    Description: "Information about the instances"
+  Databases: 
+    Description: "Information about the databases"</t>
   </si>
 </sst>
 </file>
@@ -448,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -476,6 +483,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1356,8 +1366,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>37536</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>237694</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>218644</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1400,8 +1410,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>723333</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>209123</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190073</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1488,8 +1498,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>8959</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>180546</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9096</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2443,8 +2453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07939E15-2990-44D2-94AA-46FDF7FAB77F}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2477,14 +2487,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" ht="57.75">
       <c r="A6" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="43.5">
-      <c r="A7" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="75">
+      <c r="A7" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="43.5">
@@ -2492,14 +2502,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="29.25">
+    <row r="9" spans="1:1" ht="43.5">
       <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="43.5">
+    <row r="10" spans="1:1" ht="29.25">
       <c r="A10" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="43.5">
+      <c r="A11" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -2507,7 +2522,7 @@
     </row>
     <row r="13" spans="1:1" ht="29.25">
       <c r="A13" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Curso de Infraestructura Como Código en AWS/Fundamentos.xlsx
+++ b/Curso de Infraestructura Como Código en AWS/Fundamentos.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jrperez\Cursos\CloudAws\Curso de Infraestructura Como Código en AWS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA959DC0-E7E1-4BAF-B586-069B8DB283AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624645AC-0694-4EEB-8293-D3BB951C74B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Versionamiento" sheetId="1" r:id="rId1"/>
     <sheet name="Herramientas" sheetId="2" r:id="rId2"/>
     <sheet name="CloudFormation" sheetId="3" r:id="rId3"/>
     <sheet name="Anatomia CF" sheetId="4" r:id="rId4"/>
+    <sheet name="Stacks características " sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Diferentes herramientas para desplegar infraestructura</t>
   </si>
@@ -325,20 +326,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Mappings : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4A4A4A"/>
-        <rFont val="Lato"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arreglo de Llave valor . os cuales se pueden referenciar dentro del template . Similar a una tabla de busqueda</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -364,6 +351,141 @@
     Description: "Information about the instances"
   Databases: 
     Description: "Information about the databases"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>Outputs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>: valores devueltos de las propiedades del recurso creado, la funcion lambda toma el export de dynamo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>Conditions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>:  Opcional. Controlan si se crean ciertos recursos o si se asigna un valor a ciertas propiedades durante la creacion del stack.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mappings : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>Opcional.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arreglo de Llave valor . os cuales se pueden referenciar dentro del template . Similar a una tabla de busqueda</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>Transforms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Opcipnal. Para aplicaciones serverless, si se especifica se pueden usar sintaxis de AWS SAM.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>Resources</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Obligatorio. Especifica los recursos y las propiedades a crear, porque siempre vamos a desplegar un recurso.</t>
+    </r>
+  </si>
+  <si>
+    <t>Stacks: características y despliegue</t>
+  </si>
+  <si>
+    <t>Gestión de recursos: cloudformation asegura que todos los recursos sean creados o eliminados, si algo falla no se deja continuar la ejecución, hara un rollback.</t>
+  </si>
+  <si>
+    <t>Si borro un stack todos los recursos asociados se borran,</t>
+  </si>
+  <si>
+    <t>¿Que es un drift? Detecta una desviación entre el stack y los recursos desplegados. NUNCA DEBE HABER UNA DESVIACIÓN.</t>
+  </si>
+  <si>
+    <t>¿Que puedo identificar con un drift? Recursos agregados, eliminados y con propiedades diferentes</t>
+  </si>
+  <si>
+    <t>Stack: colección de recursos que se manejan como unidad. Stack es un grupo de recursos que cloudformation creó con la plantilla.</t>
   </si>
 </sst>
 </file>
@@ -455,7 +577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -486,6 +608,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1454,7 +1579,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>685237</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>66242</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1498,7 +1623,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>8959</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>9096</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1964,6 +2089,495 @@
         <a:xfrm>
           <a:off x="9305925" y="18802350"/>
           <a:ext cx="4485714" cy="3428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142286</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>171000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagen 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCF212E6-5ECA-4E30-B28D-62115078F6C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4733925" y="24488775"/>
+          <a:ext cx="4714286" cy="3600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180381</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>151952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagen 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE91C518-B818-4856-A4C7-5A172AC78AD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10067925" y="24488775"/>
+          <a:ext cx="4752381" cy="3580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142286</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>151952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Imagen 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D38DC3-5D43-42F6-B33A-70080E76954A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4733925" y="28489275"/>
+          <a:ext cx="4714286" cy="3580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123238</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>104333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagen 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39728EAF-B36A-4C48-ABDA-2DAD3A7C47BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4733925" y="32299275"/>
+          <a:ext cx="4695238" cy="3533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>151809</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>94809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Imagen 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97FF66A7-9499-478B-AE80-5CD250F4159C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10067925" y="32299275"/>
+          <a:ext cx="4723809" cy="3523809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>170857</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>151952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Imagen 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94C89783-41D5-43BA-8040-0C1AFDA22E09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4733925" y="36490275"/>
+          <a:ext cx="4742857" cy="3580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104190</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>123381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Imagen 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C028100-E22F-4E83-BDD5-D7B24FAF7EE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10067925" y="36490275"/>
+          <a:ext cx="4676190" cy="3552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>170857</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90C0A0E5-914D-433F-8ACE-F5B9710FC4E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5029200" y="304800"/>
+          <a:ext cx="4742857" cy="3561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561383</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>75761</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CB65187-14C8-4DD0-B21F-E5D5F7F673A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10001250" y="342900"/>
+          <a:ext cx="4733333" cy="3514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>132762</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>113857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2177328-FA46-4F46-8382-5DF689BFEA37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5029200" y="4162425"/>
+          <a:ext cx="4704762" cy="3542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>27986</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104332</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04874B73-1918-4C67-9EC0-326CC2AF1296}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10248900" y="3962400"/>
+          <a:ext cx="4714286" cy="3542857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2451,10 +3065,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07939E15-2990-44D2-94AA-46FDF7FAB77F}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="I171" sqref="I171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2489,12 +3103,12 @@
     </row>
     <row r="6" spans="1:1" ht="57.75">
       <c r="A6" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="75">
       <c r="A7" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="43.5">
@@ -2522,8 +3136,129 @@
     </row>
     <row r="13" spans="1:1" ht="29.25">
       <c r="A13" s="10" t="s">
-        <v>40</v>
-      </c>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="30">
+      <c r="A15" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="30">
+      <c r="A16" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="30">
+      <c r="A17" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="30">
+      <c r="A18" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8899EA4-6683-4374-BFDC-EEF31BA990F6}">
+  <dimension ref="A1:A24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="64" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="24" thickBot="1">
+      <c r="A1" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="45.75">
+      <c r="A3" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="45.75">
+      <c r="A4" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.75">
+      <c r="A5" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="45.75">
+      <c r="A6" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="30.75">
+      <c r="A7" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="11"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="11"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="11"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="11"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="11"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="11"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="11"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="11"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="11"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="11"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="11"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="11"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="11"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="11"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="11"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="11"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Curso de Infraestructura Como Código en AWS/Fundamentos.xlsx
+++ b/Curso de Infraestructura Como Código en AWS/Fundamentos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jrperez\Cursos\CloudAws\Curso de Infraestructura Como Código en AWS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624645AC-0694-4EEB-8293-D3BB951C74B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C93B40-E386-41CD-8E1B-409303F1C879}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Versionamiento" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="CloudFormation" sheetId="3" r:id="rId3"/>
     <sheet name="Anatomia CF" sheetId="4" r:id="rId4"/>
     <sheet name="Stacks características " sheetId="5" r:id="rId5"/>
+    <sheet name="Stack Sets  despliegues multicu" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Diferentes herramientas para desplegar infraestructura</t>
   </si>
@@ -487,12 +488,42 @@
   <si>
     <t>Stack: colección de recursos que se manejan como unidad. Stack es un grupo de recursos que cloudformation creó con la plantilla.</t>
   </si>
+  <si>
+    <t>Stack Sets: despliegues multicuenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StackSets le permite crear, actualizar o eliminar pilas en varias cuentas y regiones con una sola operación </t>
+  </si>
+  <si>
+    <t>Que tipos de cuentas existen?</t>
+  </si>
+  <si>
+    <t>Cuentas administrador y cuentas target</t>
+  </si>
+  <si>
+    <t>Desde donde se despliegan recursos Multi Cuenta?</t>
+  </si>
+  <si>
+    <t>Se debe hacer desde una cuenta maestra que tenga permisos sobre las otras</t>
+  </si>
+  <si>
+    <t>Instancia de un Stack</t>
+  </si>
+  <si>
+    <t>Hace referencia a un stack dentro de una cuenta</t>
+  </si>
+  <si>
+    <t>Diferentes Parametros</t>
+  </si>
+  <si>
+    <t>Se pueden desplegar stack set que cambien de parametros dependiendo de la cuenta destino.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,6 +578,12 @@
       <name val="Lato"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -577,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -611,6 +648,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2578,6 +2616,99 @@
         <a:xfrm>
           <a:off x="10248900" y="3962400"/>
           <a:ext cx="4714286" cy="3542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4485724</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF619DAB-8E22-4713-9DB8-71AC7BB5A504}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="2581275"/>
+          <a:ext cx="4409524" cy="3409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4667250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>550117</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFFFDCFA-8A19-4BCC-A799-44A71913241F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4667250" y="2543175"/>
+          <a:ext cx="4903042" cy="3714750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3170,7 +3301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8899EA4-6683-4374-BFDC-EEF31BA990F6}">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -3264,4 +3395,74 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{779F8B29-BBE6-42E3-9211-97EF961CEC75}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="78.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="24" thickBot="1">
+      <c r="A1" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="18">
+      <c r="A2" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.75">
+      <c r="A5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75">
+      <c r="A6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.75">
+      <c r="A7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.75">
+      <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.75">
+      <c r="A9" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.75">
+      <c r="A10" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15.75">
+      <c r="A11" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Curso de Infraestructura Como Código en AWS/Fundamentos.xlsx
+++ b/Curso de Infraestructura Como Código en AWS/Fundamentos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jrperez\Cursos\CloudAws\Curso de Infraestructura Como Código en AWS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C93B40-E386-41CD-8E1B-409303F1C879}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F632817A-F82C-4BEA-BCC7-2D4CFB8368FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Versionamiento" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Anatomia CF" sheetId="4" r:id="rId4"/>
     <sheet name="Stacks características " sheetId="5" r:id="rId5"/>
     <sheet name="Stack Sets  despliegues multicu" sheetId="6" r:id="rId6"/>
+    <sheet name="Nested Stacks" sheetId="7" r:id="rId7"/>
+    <sheet name="Laboratorio" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Diferentes herramientas para desplegar infraestructura</t>
   </si>
@@ -517,6 +519,52 @@
   </si>
   <si>
     <t>Se pueden desplegar stack set que cambien de parametros dependiendo de la cuenta destino.</t>
+  </si>
+  <si>
+    <t>Stack anidados, surgen por los limites de cloudformation</t>
+  </si>
+  <si>
+    <t>Se crea un stack maestro con stacks mas pequeños.</t>
+  </si>
+  <si>
+    <t>Limites: para crear recursos que necesiten pasar los limites.</t>
+  </si>
+  <si>
+    <t>Granularidad: cada recurso queda independiente en stacks separados.</t>
+  </si>
+  <si>
+    <t>Orden: se pueden crear precedencias y condiciones entre recursos.</t>
+  </si>
+  <si>
+    <t>Interacción: los stacks se comunican entre si a través de los outputs.</t>
+  </si>
+  <si>
+    <t>Nested Stacks: composición y ejemplos</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Nested Stacks Limites de CloudFormation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+100 Mappings 
+Stack 200 Recursos
+Stack 51,200 bytes: Cuerpo de template para CreateStack, UpdateStack, or ValidateTemplate 
+460,800 bytes: Tamaño maximo de template en S3</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2709,6 +2757,280 @@
         <a:xfrm>
           <a:off x="4667250" y="2543175"/>
           <a:ext cx="4903042" cy="3714750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161333</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>666299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1774275C-0940-45FC-9088-D048E462488A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5343525" y="0"/>
+          <a:ext cx="4733333" cy="3609524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161332</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85271</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06C9A7D0-27E7-4255-A46B-C3484A7D72A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4362450"/>
+          <a:ext cx="4742857" cy="3628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>189905</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>151952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FAD237B-3FA6-4C40-A3CE-5A4A6885AD2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5343525" y="4286250"/>
+          <a:ext cx="4761905" cy="3580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123238</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>151952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{634E1EE7-0361-4D57-9DA4-7C0D651ED847}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10677525" y="4286250"/>
+          <a:ext cx="4695238" cy="3580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180189</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>28000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D4860B6-B7F7-4E54-ACC3-E08B571CAB0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8477250"/>
+          <a:ext cx="6285714" cy="4600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>628095</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>151976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA60F91C-1D83-4E22-9EDF-78A9F7912B05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="190500"/>
+          <a:ext cx="4438095" cy="3390476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3198,7 +3520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07939E15-2990-44D2-94AA-46FDF7FAB77F}">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="I171" sqref="I171"/>
     </sheetView>
   </sheetViews>
@@ -3401,7 +3723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{779F8B29-BBE6-42E3-9211-97EF961CEC75}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -3465,4 +3787,88 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255E6079-E051-4F24-93D3-35FB2C704905}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="57.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="47.25" thickBot="1">
+      <c r="A1" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="30.75">
+      <c r="A2" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75">
+      <c r="A3" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="30.75">
+      <c r="A4" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="30.75">
+      <c r="A5" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="30.75">
+      <c r="A6" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="30.75">
+      <c r="A7" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="11"/>
+    </row>
+    <row r="9" spans="1:1" ht="90.75">
+      <c r="A9" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="11"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22F437A-9962-4E8D-84C3-2560225D1975}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Curso de Infraestructura Como Código en AWS/Fundamentos.xlsx
+++ b/Curso de Infraestructura Como Código en AWS/Fundamentos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jrperez\Cursos\CloudAws\Curso de Infraestructura Como Código en AWS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F632817A-F82C-4BEA-BCC7-2D4CFB8368FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60122F8-0C14-4CC5-8732-1AAC24979823}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Versionamiento" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Stack Sets  despliegues multicu" sheetId="6" r:id="rId6"/>
     <sheet name="Nested Stacks" sheetId="7" r:id="rId7"/>
     <sheet name="Laboratorio" sheetId="8" r:id="rId8"/>
+    <sheet name="Designer Stack Grafico" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Diferentes herramientas para desplegar infraestructura</t>
   </si>
@@ -565,6 +566,32 @@
 Stack 51,200 bytes: Cuerpo de template para CreateStack, UpdateStack, or ValidateTemplate 
 460,800 bytes: Tamaño maximo de template en S3</t>
     </r>
+  </si>
+  <si>
+    <t>Se despliega la Infra con Non Stack y con Nested Stack</t>
+  </si>
+  <si>
+    <t>Se prueba la Lambda haciendo un test con este JSON</t>
+  </si>
+  <si>
+    <t>{
+  "cc":"1111"
+}</t>
+  </si>
+  <si>
+    <t>Luego se verifica que el API Gateway este creado y se realiza el test con el mismo JSON</t>
+  </si>
+  <si>
+    <t>Se publica el API para que genere un URL</t>
+  </si>
+  <si>
+    <t>Se realiza una peticion POST por medio de la pagina postman.com apuntando a la URL generada en el paso anterio¿r y cobn el JSON</t>
+  </si>
+  <si>
+    <t>Se valida que la tabla en dynamo este y se le insertan registros adicionales como el nombre , la direccion y el barrio</t>
+  </si>
+  <si>
+    <t>cómo crear un stack de forma gráfica con Designer</t>
   </si>
 </sst>
 </file>
@@ -3031,6 +3058,445 @@
         <a:xfrm>
           <a:off x="0" y="190500"/>
           <a:ext cx="4438095" cy="3390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>760095</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>189476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC1875E2-EAF1-4AC0-90DA-E7FB115BB1B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5905500"/>
+          <a:ext cx="15238095" cy="8190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D5E8242-5AA7-49D9-A6F6-E599524ECE96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect l="23253" r="29178" b="32546"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66676" y="5724525"/>
+          <a:ext cx="7248524" cy="5781675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>399333</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>113929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AD89B88-FDF0-4356-88F3-8AEECC2A0E86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620000" y="5715000"/>
+          <a:ext cx="5733333" cy="2971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>217238</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>18429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC028146-AE30-4576-86A7-66CDC4A94985}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13716000" y="5715000"/>
+          <a:ext cx="14695238" cy="4971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>494286</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2169C450-A91D-4EC2-9176-ADA3BDB909FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4381500"/>
+          <a:ext cx="8114286" cy="3552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>675524</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>132976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10585D81-90AB-4C30-8A06-F03A1D3A59E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8382000" y="4381500"/>
+          <a:ext cx="6009524" cy="2990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>588952</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>56643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A51420E4-FAE3-41E4-B892-8623F7F4B962}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14478000" y="4381500"/>
+          <a:ext cx="12780952" cy="4057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>8571</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>8952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FC37045-8943-4602-A80D-E6B0A7193BAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9334500"/>
+          <a:ext cx="7628571" cy="4580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>713619</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>37500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8384ADE4-E68B-4057-A41F-F3F12446228F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8382000" y="9334500"/>
+          <a:ext cx="6047619" cy="4800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>588989</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>160404</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70EBE824-C8C9-48BA-961B-DCC6580519F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15401924" y="9477375"/>
+          <a:ext cx="10333065" cy="4780029"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3860,15 +4326,121 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22F437A-9962-4E8D-84C3-2560225D1975}">
-  <dimension ref="A1"/>
+  <dimension ref="A22:A108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="N58" workbookViewId="0">
+      <selection activeCell="U47" sqref="U47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="60">
+      <c r="A46" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="11"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="11"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="11"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="11"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="11"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="11"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="11"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="11"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="11"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="11"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="11"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="11"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="11"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="11"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="11"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="11"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98EA411C-A544-4C41-9FCE-72CA07803B34}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="67.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="47.25" thickBot="1">
+      <c r="A1" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>